--- a/server/Dungeonz.io mob values.xlsx
+++ b/server/Dungeonz.io mob values.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Entity name</t>
   </si>
@@ -274,6 +274,21 @@
   <si>
     <t>Great gnarl</t>
   </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>DungiumArrows</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Arch mage</t>
+  </si>
 </sst>
 </file>
 
@@ -366,11 +381,11 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -592,7 +607,7 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="8">
-        <v>1100.0</v>
+        <v>1800.0</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
@@ -970,9 +985,7 @@
       <c r="K14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="L14" s="8"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1463,10 +1476,10 @@
         <v>56</v>
       </c>
       <c r="B26" s="8">
-        <v>50.0</v>
+        <v>30.0</v>
       </c>
       <c r="C26" s="8">
-        <v>200.0</v>
+        <v>100.0</v>
       </c>
       <c r="D26" s="8">
         <v>60.0</v>
@@ -1508,7 +1521,7 @@
         <v>300.0</v>
       </c>
       <c r="C27" s="8">
-        <v>500.0</v>
+        <v>300.0</v>
       </c>
       <c r="D27" s="8">
         <v>60.0</v>
@@ -1545,17 +1558,27 @@
       <c r="X27" s="7"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>35.0</v>
+      </c>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="D28" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>6.0</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
@@ -1571,17 +1594,29 @@
       <c r="X28" s="7"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="10"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="8">
+        <v>50.0</v>
+      </c>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="D29" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>6.0</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="I29" s="8">
+        <v>2000.0</v>
+      </c>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="K29" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
@@ -1597,20 +1632,36 @@
       <c r="X29" s="7"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="10"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="A30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>300.0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>7.0</v>
+      </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="I30" s="8">
+        <v>1000.0</v>
+      </c>
       <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
+      <c r="K30" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
+      <c r="N30" s="8">
+        <v>3.0</v>
+      </c>
       <c r="O30" s="7"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -26946,6 +26997,32 @@
       <c r="W1004" s="7"/>
       <c r="X1004" s="7"/>
     </row>
+    <row r="1005" ht="18.75" customHeight="1">
+      <c r="A1005" s="10"/>
+      <c r="B1005" s="7"/>
+      <c r="C1005" s="7"/>
+      <c r="D1005" s="7"/>
+      <c r="E1005" s="7"/>
+      <c r="F1005" s="7"/>
+      <c r="G1005" s="7"/>
+      <c r="H1005" s="7"/>
+      <c r="I1005" s="7"/>
+      <c r="J1005" s="7"/>
+      <c r="K1005" s="7"/>
+      <c r="L1005" s="7"/>
+      <c r="M1005" s="7"/>
+      <c r="N1005" s="7"/>
+      <c r="O1005" s="7"/>
+      <c r="P1005" s="7"/>
+      <c r="Q1005" s="7"/>
+      <c r="R1005" s="7"/>
+      <c r="S1005" s="7"/>
+      <c r="T1005" s="7"/>
+      <c r="U1005" s="7"/>
+      <c r="V1005" s="7"/>
+      <c r="W1005" s="7"/>
+      <c r="X1005" s="7"/>
+    </row>
   </sheetData>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
